--- a/data_year/zb/社会服务/婚姻服务.xlsx
+++ b/data_year/zb/社会服务/婚姻服务.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.62</v>
+        <v>281.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1581.39</v>
+        <v>2200.9</v>
       </c>
       <c r="D2" t="n">
-        <v>842</v>
+        <v>1236.1</v>
       </c>
       <c r="E2" t="n">
-        <v>6.49</v>
+        <v>4.9</v>
       </c>
       <c r="F2" t="n">
-        <v>121.29</v>
+        <v>267.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>848.5</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4869</v>
+        <v>294.85</v>
       </c>
       <c r="C3" t="n">
-        <v>1481.7419</v>
+        <v>2309.88</v>
       </c>
       <c r="D3" t="n">
-        <v>797.1144</v>
+        <v>1297.48</v>
       </c>
       <c r="E3" t="n">
-        <v>7.8672</v>
+        <v>4.88</v>
       </c>
       <c r="F3" t="n">
-        <v>125.0457</v>
+        <v>287.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.98</v>
+        <v>2.13</v>
       </c>
       <c r="H3" t="n">
-        <v>805</v>
+        <v>1302.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.1</v>
+        <v>286.02</v>
       </c>
       <c r="C4" t="n">
-        <v>1440.3</v>
+        <v>2361.17</v>
       </c>
       <c r="D4" t="n">
-        <v>778.8</v>
+        <v>1318.27</v>
       </c>
       <c r="E4" t="n">
-        <v>7.2778</v>
+        <v>5.33</v>
       </c>
       <c r="F4" t="n">
-        <v>117.7</v>
+        <v>310.38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>2.29</v>
       </c>
       <c r="H4" t="n">
-        <v>786</v>
+        <v>1323.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123.3</v>
+        <v>307.89</v>
       </c>
       <c r="C5" t="n">
-        <v>1483.9</v>
+        <v>2385.96</v>
       </c>
       <c r="D5" t="n">
-        <v>803.5</v>
+        <v>1341.43</v>
       </c>
       <c r="E5" t="n">
-        <v>7.8285</v>
+        <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>133</v>
+        <v>350.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.05</v>
+        <v>2.57</v>
       </c>
       <c r="H5" t="n">
-        <v>811.4</v>
+        <v>1346.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152</v>
+        <v>326.68</v>
       </c>
       <c r="C6" t="n">
-        <v>1569.6</v>
+        <v>2286.81</v>
       </c>
       <c r="D6" t="n">
-        <v>860.8</v>
+        <v>1302.04</v>
       </c>
       <c r="E6" t="n">
-        <v>6.3544</v>
+        <v>4.7</v>
       </c>
       <c r="F6" t="n">
-        <v>166.5</v>
+        <v>363.6754</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>2.67</v>
       </c>
       <c r="H6" t="n">
-        <v>867.2</v>
+        <v>1306.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1</v>
+        <v>340.44</v>
       </c>
       <c r="C7" t="n">
-        <v>1483</v>
+        <v>2108.97</v>
       </c>
       <c r="D7" t="n">
-        <v>816.6</v>
+        <v>1220.59</v>
       </c>
       <c r="E7" t="n">
-        <v>6.43</v>
+        <v>4.12</v>
       </c>
       <c r="F7" t="n">
-        <v>178.5</v>
+        <v>384.14</v>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>2.79</v>
       </c>
       <c r="H7" t="n">
-        <v>823.1</v>
+        <v>1224.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.4</v>
+        <v>372.39</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.6</v>
+        <v>1913.26</v>
       </c>
       <c r="D8" t="n">
-        <v>938.2</v>
+        <v>1138.61</v>
       </c>
       <c r="E8" t="n">
-        <v>6.82</v>
+        <v>4.22</v>
       </c>
       <c r="F8" t="n">
-        <v>191.3</v>
+        <v>415.82</v>
       </c>
       <c r="G8" t="n">
-        <v>1.46</v>
+        <v>3.02</v>
       </c>
       <c r="H8" t="n">
-        <v>945</v>
+        <v>1142.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.1</v>
+        <v>379.86</v>
       </c>
       <c r="C9" t="n">
-        <v>1779.7</v>
+        <v>1746.33</v>
       </c>
       <c r="D9" t="n">
-        <v>986.3</v>
+        <v>1059.04</v>
       </c>
       <c r="E9" t="n">
-        <v>5.11</v>
+        <v>4.05</v>
       </c>
       <c r="F9" t="n">
-        <v>209.8</v>
+        <v>437.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>3.1547839384</v>
       </c>
       <c r="H9" t="n">
-        <v>991.4</v>
+        <v>1063.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.1</v>
+        <v>429.2196</v>
       </c>
       <c r="C10" t="n">
-        <v>1972.5</v>
+        <v>1598.6682</v>
       </c>
       <c r="D10" t="n">
-        <v>1093.2</v>
+        <v>1009.1077</v>
       </c>
       <c r="E10" t="n">
-        <v>5.1</v>
+        <v>4.8362</v>
       </c>
       <c r="F10" t="n">
-        <v>226.9</v>
+        <v>446.0849</v>
       </c>
       <c r="G10" t="n">
-        <v>1.71</v>
+        <v>3.2029531927</v>
       </c>
       <c r="H10" t="n">
-        <v>1098.3</v>
+        <v>1013.9439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256</v>
+        <v>455.9437</v>
       </c>
       <c r="C11" t="n">
-        <v>2168.8</v>
+        <v>1398.7101</v>
       </c>
       <c r="D11" t="n">
-        <v>1207.5</v>
+        <v>922.391</v>
       </c>
       <c r="E11" t="n">
-        <v>4.92</v>
+        <v>4.9359</v>
       </c>
       <c r="F11" t="n">
-        <v>246.8</v>
+        <v>470.0635</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>3.3574765187</v>
       </c>
       <c r="H11" t="n">
-        <v>1212.4</v>
+        <v>927.3269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>281.1</v>
+        <v>400.0677</v>
       </c>
       <c r="C12" t="n">
-        <v>2200.9</v>
+        <v>1228.5987</v>
       </c>
       <c r="D12" t="n">
-        <v>1236.1</v>
+        <v>812.5962</v>
       </c>
       <c r="E12" t="n">
-        <v>4.9</v>
+        <v>1.737</v>
       </c>
       <c r="F12" t="n">
-        <v>267.8</v>
+        <v>433.8998</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3.08624490100753</v>
       </c>
       <c r="H12" t="n">
-        <v>1241</v>
+        <v>814.3332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>294.85</v>
+        <v>370.7991</v>
       </c>
       <c r="C13" t="n">
-        <v>2309.88</v>
+        <v>1157.8043</v>
       </c>
       <c r="D13" t="n">
-        <v>1297.48</v>
+        <v>762.702</v>
       </c>
       <c r="E13" t="n">
-        <v>4.88</v>
+        <v>1.5997</v>
       </c>
       <c r="F13" t="n">
-        <v>287.4</v>
+        <v>283.9266</v>
       </c>
       <c r="G13" t="n">
-        <v>2.13</v>
+        <v>2.01314983408491</v>
       </c>
       <c r="H13" t="n">
-        <v>1302.36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>286.02</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2361.17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1318.27</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="F14" t="n">
-        <v>310.38</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1323.59</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>307.89</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2385.96</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1341.43</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>350.01</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1346.93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>326.68</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2286.81</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1302.04</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>363.6754</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1306.74</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>340.44</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2108.97</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1220.59</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>384.14</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1224.71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>372.39</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1913.26</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1138.61</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F18" t="n">
-        <v>415.82</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1142.82</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>379.86</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1746.33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1059.04</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F19" t="n">
-        <v>437.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.1547839384</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1063.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>429.2196</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1598.6682</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1009.1077</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.8362</v>
-      </c>
-      <c r="F20" t="n">
-        <v>446.0849</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.2029531927</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1013.9439</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>455.9437</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1398.7101</v>
-      </c>
-      <c r="D21" t="n">
-        <v>922.391</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.9359</v>
-      </c>
-      <c r="F21" t="n">
-        <v>470.0635</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.3574765187</v>
-      </c>
-      <c r="H21" t="n">
-        <v>927.3269</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>400.0677</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1228.5987</v>
-      </c>
-      <c r="D22" t="n">
-        <v>812.5962</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.737</v>
-      </c>
-      <c r="F22" t="n">
-        <v>433.8998</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.08624490100753</v>
-      </c>
-      <c r="H22" t="n">
-        <v>814.3332</v>
+        <v>764.3017</v>
       </c>
     </row>
   </sheetData>
